--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,18</t>
+          <t>0,89; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,13</t>
+          <t>1,12; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,98</t>
+          <t>1,12; 1,92</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,92</t>
+          <t>1,52; 1,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,07</t>
+          <t>1,61; 2,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 1,93</t>
+          <t>1,65; 1,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,22</t>
+          <t>1,69; 2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,38</t>
+          <t>1,85; 2,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,2</t>
+          <t>1,85; 2,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,93</t>
+          <t>1,59; 1,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,05</t>
+          <t>1,71; 2,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 1,93</t>
+          <t>1,7; 1,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,13</t>
+          <t>0,9; 2,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,17</t>
+          <t>1,11; 2,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,92</t>
+          <t>1,15; 1,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,92</t>
+          <t>1,53; 1,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,08</t>
+          <t>1,63; 2,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 1,94</t>
+          <t>1,63; 1,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,19</t>
+          <t>1,68; 2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,33</t>
+          <t>1,83; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,22</t>
+          <t>1,85; 2,21</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,89</t>
+          <t>1,57; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,03</t>
+          <t>1,73; 2,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 1,94</t>
+          <t>1,71; 1,93</t>
         </is>
       </c>
     </row>
